--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_8_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_8_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.91287094859065, 72.53594719773707]</t>
+          <t>[54.07623963002415, 72.37257851630358]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.000543299115165, 56.563163271077514]</t>
+          <t>[43.99843776378218, 56.5652688064105]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,21 +685,21 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[52.641172058290735, 73.42927771058217]</t>
+          <t>[52.747887138107615, 73.32256263076529]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P3" t="n">
         <v>1.389973926813503</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 1.553500271144503]</t>
+          <t>[1.2138686329185786, 1.5660792207084269]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.17459962654586, 55.03399307922874]</t>
+          <t>[42.17554580035242, 55.03304690542219]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>19.30592592592626</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.66074074074107</v>
+        <v>18.61111111111143</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.95111111111146</v>
+        <v>20.00074074074109</v>
       </c>
     </row>
     <row r="4">
@@ -771,35 +771,35 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.763497282403975, 74.31968033567097]</t>
+          <t>[51.74863700777345, 74.33454061030149]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="P4" t="n">
         <v>1.264184431174272</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 1.4654476241970409]</t>
+          <t>[1.0755001877154244, 1.4528686746331188]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>48.86208073792065</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.345296431932205, 55.378865043909094]</t>
+          <t>[42.33682188251351, 55.38733959332779]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>19.80222222222257</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.00814814814848</v>
+        <v>19.05777777777811</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.59629629629665</v>
+        <v>20.54666666666703</v>
       </c>
     </row>
     <row r="5">
@@ -857,35 +857,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[50.59269667545037, 76.12871503564563]</t>
+          <t>[50.539862095766026, 76.18154961532997]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.284661597215745e-13</v>
+        <v>6.012967901369848e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>5.284661597215745e-13</v>
+        <v>6.012967901369848e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0.9874475407679633</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.7987632973091161, 1.1761317842268104]</t>
+          <t>[0.786184347745194, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>9.747758156208874e-14</v>
+        <v>7.540634783254063e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>9.747758156208874e-14</v>
+        <v>7.540634783254063e-13</v>
       </c>
       <c r="T5" t="n">
         <v>49.32342541500972</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.70760579789587, 55.93924503212356]</t>
+          <t>[42.70931548880267, 55.93753534121676]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>20.89407407407444</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.14962962962998</v>
+        <v>20.10000000000035</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6385185185189</v>
+        <v>21.68814814814852</v>
       </c>
     </row>
     <row r="6">
@@ -943,35 +943,35 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[51.96150229889635, 78.07645452004785]</t>
+          <t>[52.1596358139696, 77.8783210049746]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.747313653297169e-13</v>
+        <v>2.930988785010413e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>4.747313653297169e-13</v>
+        <v>2.930988785010413e-13</v>
       </c>
       <c r="P6" t="n">
         <v>0.6855527512338089</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 0.8868159442565791]</t>
+          <t>[0.47171060864711656, 0.8993948938205012]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.641021252218877e-08</v>
+        <v>6.53271632344854e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.641021252218877e-08</v>
+        <v>6.53271632344854e-08</v>
       </c>
       <c r="T6" t="n">
         <v>52.16989894974287</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.42934348530486, 58.91045441418088]</t>
+          <t>[45.43053411967263, 58.90926377981312]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>22.92262262262314</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.09843843843894</v>
+        <v>22.04692692692743</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.74680680680735</v>
+        <v>23.79831831831886</v>
       </c>
     </row>
     <row r="7">
@@ -1029,35 +1029,35 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[53.85496111181624, 77.78273436357915]</t>
+          <t>[54.15592708301017, 77.48176839238522]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>8.215650382226158e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>8.215650382226158e-15</v>
       </c>
       <c r="P7" t="n">
         <v>0.2704474156243464</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.08176317216549922, 0.45913165908319353]</t>
+          <t>[0.09434212172942313, 0.4465527095192696]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.005958489945543821</v>
+        <v>0.003398070425195687</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005958489945543821</v>
+        <v>0.003398070425195687</v>
       </c>
       <c r="T7" t="n">
         <v>50.54547806903654</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.862922390279664, 57.22803374779342]</t>
+          <t>[43.857773451031626, 57.233182687041456]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1070,10 +1070,10 @@
         <v>24.62250250250306</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.84982982983037</v>
+        <v>23.90134134134188</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.39517517517575</v>
+        <v>25.34366366366424</v>
       </c>
     </row>
     <row r="8">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[53.72719864682209, 76.31077529011652]</t>
+          <t>[53.821554040548534, 76.21641989639008]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="P8" t="n">
         <v>-0.1509473947670772</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.433588356559895, 58.906105908490574]</t>
+          <t>[45.42415442640336, 58.915539838647106]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.949162149667515, 75.6194553569135]</t>
+          <t>[49.58324392043407, 75.98537358614695]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>8.273381979506667e-13</v>
+        <v>1.965316798191452e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>8.273381979506667e-13</v>
+        <v>1.965316798191452e-12</v>
       </c>
       <c r="P9" t="n">
         <v>-0.6037895790683088</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.00974420447156, 55.428525095585044]</t>
+          <t>[41.99781288275247, 55.440456417304134]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,21 +1287,21 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[50.86876832279249, 73.75566594145427]</t>
+          <t>[50.88832741641615, 73.7361068478306]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.664535259100376e-14</v>
+        <v>2.531308496145357e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>2.664535259100376e-14</v>
+        <v>2.531308496145357e-14</v>
       </c>
       <c r="P10" t="n">
         <v>-1.01889491467777</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2075791581366166, -0.8302106712189241]</t>
+          <t>[-1.2075791581366175, -0.8302106712189232]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.81811136099888, 53.28445041429094]</t>
+          <t>[40.82082616982602, 53.281735605463794]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1328,10 +1328,10 @@
         <v>4.172432432432526</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.399759759759836</v>
+        <v>3.399759759759833</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.945105105105215</v>
+        <v>4.945105105105219</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_8_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_8_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[54.07623963002415, 72.37257851630358]</t>
+          <t>[53.87297221607747, 72.57584593025025]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.99843776378218, 56.5652688064105]</t>
+          <t>[43.991881270465456, 56.57182529972722]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[52.747887138107615, 73.32256263076529]</t>
+          <t>[52.36806254991272, 73.70238721896018]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="P3" t="n">
         <v>1.389973926813503</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.17554580035242, 55.03304690542219]</t>
+          <t>[42.17062766517536, 55.037965040599246]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,35 +771,35 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.74863700777345, 74.33454061030149]</t>
+          <t>[51.42397872450094, 74.659198893574]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>2.97539770599542e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>2.97539770599542e-14</v>
       </c>
       <c r="P4" t="n">
         <v>1.264184431174272</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 1.4528686746331188]</t>
+          <t>[1.0629212381515023, 1.4654476241970409]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T4" t="n">
         <v>48.86208073792065</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.33682188251351, 55.38733959332779]</t>
+          <t>[42.336553413341676, 55.38760806249962]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>19.80222222222257</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.05777777777811</v>
+        <v>19.00814814814848</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.54666666666703</v>
+        <v>20.59629629629665</v>
       </c>
     </row>
     <row r="5">
@@ -857,35 +857,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[50.539862095766026, 76.18154961532997]</t>
+          <t>[50.612448670492455, 76.10896304060354]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.012967901369848e-13</v>
+        <v>5.03375119365046e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>6.012967901369848e-13</v>
+        <v>5.03375119365046e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0.9874475407679633</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.786184347745194, 1.1887107337907326]</t>
+          <t>[0.7987632973091161, 1.1761317842268104]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.540634783254063e-13</v>
+        <v>9.747758156208874e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>7.540634783254063e-13</v>
+        <v>9.747758156208874e-14</v>
       </c>
       <c r="T5" t="n">
         <v>49.32342541500972</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.70931548880267, 55.93753534121676]</t>
+          <t>[42.70865228323903, 55.9381985467804]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>20.89407407407444</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.10000000000035</v>
+        <v>20.14962962962998</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.68814814814852</v>
+        <v>21.6385185185189</v>
       </c>
     </row>
     <row r="6">
@@ -943,35 +943,35 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[52.1596358139696, 77.8783210049746]</t>
+          <t>[51.810705508843526, 78.22725131010067]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.930988785010413e-13</v>
+        <v>6.799005802804459e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>2.930988785010413e-13</v>
+        <v>6.799005802804459e-13</v>
       </c>
       <c r="P6" t="n">
         <v>0.6855527512338089</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 0.8993948938205012]</t>
+          <t>[0.4842895582110387, 0.8868159442565791]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.53271632344854e-08</v>
+        <v>1.641021252218877e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>6.53271632344854e-08</v>
+        <v>1.641021252218877e-08</v>
       </c>
       <c r="T6" t="n">
         <v>52.16989894974287</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.43053411967263, 58.90926377981312]</t>
+          <t>[45.42611974462358, 58.91367815486217]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>22.92262262262314</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.04692692692743</v>
+        <v>22.09843843843894</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.79831831831886</v>
+        <v>23.74680680680735</v>
       </c>
     </row>
     <row r="7">
@@ -1029,35 +1029,35 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[54.15592708301017, 77.48176839238522]</t>
+          <t>[53.79101852332131, 77.84667695207408]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.215650382226158e-15</v>
+        <v>2.264854970235319e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>8.215650382226158e-15</v>
+        <v>2.264854970235319e-14</v>
       </c>
       <c r="P7" t="n">
         <v>0.2704474156243464</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.09434212172942313, 0.4465527095192696]</t>
+          <t>[0.08176317216549922, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.003398070425195687</v>
+        <v>0.005958489945543821</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003398070425195687</v>
+        <v>0.005958489945543821</v>
       </c>
       <c r="T7" t="n">
         <v>50.54547806903654</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.857773451031626, 57.233182687041456]</t>
+          <t>[43.858994872337256, 57.231961265735826]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1070,10 +1070,10 @@
         <v>24.62250250250306</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.90134134134188</v>
+        <v>23.84982982983037</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.34366366366424</v>
+        <v>25.39517517517575</v>
       </c>
     </row>
     <row r="8">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[53.821554040548534, 76.21641989639008]</t>
+          <t>[53.732493567312716, 76.3054803696259]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="P8" t="n">
         <v>-0.1509473947670772</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.42415442640336, 58.915539838647106]</t>
+          <t>[45.435838689361255, 58.903855575689214]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.58324392043407, 75.98537358614695]</t>
+          <t>[49.88473434757874, 75.68388315900228]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.965316798191452e-12</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.965316798191452e-12</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="P9" t="n">
         <v>-0.6037895790683088</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[41.99781288275247, 55.440456417304134]</t>
+          <t>[41.99838100536605, 55.439888294690554]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,35 +1287,35 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[50.88832741641615, 73.7361068478306]</t>
+          <t>[50.35811620993313, 74.26631805431363]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.531308496145357e-14</v>
+        <v>1.108002578575906e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>2.531308496145357e-14</v>
+        <v>1.108002578575906e-13</v>
       </c>
       <c r="P10" t="n">
         <v>-1.01889491467777</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2075791581366175, -0.8302106712189232]</t>
+          <t>[-1.2201581077005397, -0.8176317216550011]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.508304757815495e-14</v>
+        <v>2.817746036498647e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>3.508304757815495e-14</v>
+        <v>2.817746036498647e-13</v>
       </c>
       <c r="T10" t="n">
         <v>47.05128088764491</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.82082616982602, 53.281735605463794]</t>
+          <t>[40.820284812336084, 53.28227696295373]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1328,10 +1328,10 @@
         <v>4.172432432432526</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.399759759759833</v>
+        <v>3.348248248248324</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.945105105105219</v>
+        <v>4.996616616616728</v>
       </c>
     </row>
   </sheetData>
